--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile8.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ProprietaryDataFiles/Syndication_InvalidFile8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\bbotelho\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ProprietaryDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A659560-E472-406F-80CF-347835082DC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B36194D5-6529-472D-BE76-7124542C9B49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,12 +94,6 @@
     <t>Live+3</t>
   </si>
   <si>
-    <t>A18-34 Avg Rtg</t>
-  </si>
-  <si>
-    <t>A18-34 Avg Imps (000)</t>
-  </si>
-  <si>
     <t>A18-34 VPVH</t>
   </si>
   <si>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>House 9</t>
+  </si>
+  <si>
+    <t>Avg A18-34 Rtg</t>
+  </si>
+  <si>
+    <t>Avg A18-34 Imps (000)</t>
   </si>
 </sst>
 </file>
@@ -618,6 +618,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -627,20 +633,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,7 +978,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="15" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="24" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1037,19 +1037,19 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43" t="str">
+      <c r="D2" s="37"/>
+      <c r="E2" s="41" t="str">
         <f>IF(COUNTA($E$3:$E10) &gt; 0, "Errors", "")</f>
         <v/>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="4"/>
@@ -1078,12 +1078,12 @@
         <v>4</v>
       </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4"/>
@@ -1112,12 +1112,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4"/>
@@ -1146,12 +1146,12 @@
         <v>6</v>
       </c>
       <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4"/>
@@ -1180,12 +1180,12 @@
         <v>9</v>
       </c>
       <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4"/>
@@ -1214,12 +1214,12 @@
         <v>25.123000000000001</v>
       </c>
       <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4"/>
@@ -1248,12 +1248,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="4"/>
@@ -1280,12 +1280,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="4"/>
@@ -1310,16 +1310,16 @@
       <c r="B10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="C10" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="38"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
@@ -1468,16 +1468,16 @@
         <v>21</v>
       </c>
       <c r="F15" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="I15" s="25" t="s">
         <v>25</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>27</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="16" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="29">
         <v>1</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="17" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="29">
         <v>1</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="18" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="29">
         <v>1</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="19" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B19" s="29">
         <v>1</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="20" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="29">
         <v>1</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="21" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="29">
         <v>1</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="22" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="29">
         <v>1</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="23" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="29">
         <v>1</v>
@@ -1870,7 +1870,7 @@
     </row>
     <row r="24" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="29">
         <v>2</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="25" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25" s="29">
         <v>1</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="26" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26" s="29">
         <v>1</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="27" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27" s="29">
         <v>1</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="28" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="29">
         <v>1</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="29" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="29">
         <v>1</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="30" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="29">
         <v>1</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="31" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="29">
         <v>1</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="32" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32" s="29">
         <v>1</v>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="33" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="29">
         <v>1</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="34" spans="1:26" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34" s="29">
         <v>1</v>
@@ -33148,14 +33148,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="E5:J5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="E10:J10"/>
@@ -33166,6 +33158,14 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="E8:J8"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="E5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:Z1048576">
     <cfRule type="expression" dxfId="3" priority="37">
